--- a/data/animalData.xlsx
+++ b/data/animalData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truebloodjv\Documents\projects\pythonTutorial\data\tutorial2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Projects/pythonTutorial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CB4184-7513-4336-9F80-9617D76EC1B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F0A3CA-EF38-E74D-9C7C-BCFB5F31D3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75AD2B16-2F1B-40F3-92CE-3AF4B9A32061}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{75AD2B16-2F1B-40F3-92CE-3AF4B9A32061}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1076,21 +1078,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5D3C2C-BD74-4FB4-98E7-70049C033890}">
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="J188" sqref="J188"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1168,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1396,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1470,7 +1472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1500,17 +1502,17 @@
       </c>
       <c r="J11" s="1">
         <f ca="1">RANDBETWEEN(50,160)</f>
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="K11">
         <f ca="1">RANDBETWEEN(5,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1540,17 +1542,17 @@
       </c>
       <c r="J12" s="1">
         <f ca="1">RANDBETWEEN(50,160)</f>
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <f ca="1">RANDBETWEEN(5,10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1620,17 +1622,17 @@
       </c>
       <c r="J14" s="1">
         <f ca="1">RANDBETWEEN(50,160)</f>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K14">
         <f ca="1">RANDBETWEEN(5,10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1660,7 +1662,7 @@
       </c>
       <c r="J15" s="1">
         <f ca="1">RANDBETWEEN(21,72)</f>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K15">
         <f ca="1">RANDBETWEEN(25,33)</f>
@@ -1670,7 +1672,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1700,17 +1702,17 @@
       </c>
       <c r="J16" s="1">
         <f ca="1">RANDBETWEEN(21,72)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <f ca="1">RANDBETWEEN(25,33)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1750,7 +1752,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1780,17 +1782,17 @@
       </c>
       <c r="J18" s="1">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1820,17 +1822,17 @@
       </c>
       <c r="J19" s="1">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1860,17 +1862,17 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1900,7 +1902,7 @@
       </c>
       <c r="J21" s="1">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <f ca="1">RANDBETWEEN(20,30)</f>
@@ -1910,7 +1912,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1940,17 +1942,17 @@
       </c>
       <c r="J22" s="1">
         <f ca="1">RANDBETWEEN(520,1100)</f>
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="K22">
         <f ca="1">RANDBETWEEN(8,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="J23" s="1">
         <f ca="1">RANDBETWEEN(40,90)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K23">
         <f ca="1">RANDBETWEEN(6.7,12)</f>
@@ -1990,7 +1992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2060,17 +2062,17 @@
       </c>
       <c r="J25" s="1">
         <f ca="1">RANDBETWEEN(4,40)</f>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="K25">
         <f ca="1">RANDBETWEEN(11,20.5)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -2100,7 +2102,7 @@
       </c>
       <c r="J26" s="1">
         <f ca="1">RANDBETWEEN(4,40)</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K26">
         <f ca="1">RANDBETWEEN(11,20.5)</f>
@@ -2110,7 +2112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2140,17 +2142,17 @@
       </c>
       <c r="J27" s="1">
         <f ca="1">RANDBETWEEN(4,40)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K27">
         <f ca="1">RANDBETWEEN(11,20.5)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2180,17 +2182,17 @@
       </c>
       <c r="J28" s="1">
         <f ca="1">RANDBETWEEN(4,40)</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K28">
         <f ca="1">RANDBETWEEN(11,20.5)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2224,13 +2226,13 @@
       </c>
       <c r="K29">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2264,13 +2266,13 @@
       </c>
       <c r="K30">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2300,17 +2302,17 @@
       </c>
       <c r="J31" s="1">
         <f ca="1">RANDBETWEEN(520,1100)</f>
-        <v>618</v>
+        <v>854</v>
       </c>
       <c r="K31">
         <f ca="1">RANDBETWEEN(8,12)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2340,17 +2342,17 @@
       </c>
       <c r="J32" s="1">
         <f ca="1">RANDBETWEEN(40,90)</f>
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K32">
         <f ca="1">RANDBETWEEN(6.7,12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2380,17 +2382,17 @@
       </c>
       <c r="J33" s="1">
         <f ca="1">RANDBETWEEN(4,40)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K33">
         <f ca="1">RANDBETWEEN(11,20.5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2419,18 +2421,18 @@
         <v>91</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ref="J34:J97" ca="1" si="0">RANDBETWEEN(4,40)</f>
-        <v>13</v>
+        <f t="shared" ref="J34:J69" ca="1" si="0">RANDBETWEEN(4,40)</f>
+        <v>25</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K97" ca="1" si="1">RANDBETWEEN(11,20.5)</f>
-        <v>18</v>
+        <f t="shared" ref="K34:K69" ca="1" si="1">RANDBETWEEN(11,20.5)</f>
+        <v>19</v>
       </c>
       <c r="L34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2460,17 +2462,17 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -2500,17 +2502,17 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2540,17 +2542,17 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2580,17 +2582,17 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2620,7 +2622,7 @@
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
@@ -2630,7 +2632,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2660,17 +2662,17 @@
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2700,17 +2702,17 @@
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2740,17 +2742,17 @@
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -2780,17 +2782,17 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2820,17 +2822,17 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2860,17 +2862,17 @@
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -2900,17 +2902,17 @@
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -2940,17 +2942,17 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -2980,17 +2982,17 @@
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -3020,17 +3022,17 @@
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -3060,17 +3062,17 @@
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3100,17 +3102,17 @@
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -3140,17 +3142,17 @@
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -3180,17 +3182,17 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -3220,7 +3222,7 @@
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="1"/>
@@ -3230,7 +3232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3260,17 +3262,17 @@
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -3300,17 +3302,17 @@
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -3340,17 +3342,17 @@
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -3380,17 +3382,17 @@
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -3420,17 +3422,17 @@
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -3460,17 +3462,17 @@
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L60" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -3500,17 +3502,17 @@
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -3540,17 +3542,17 @@
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3580,7 +3582,7 @@
       </c>
       <c r="J63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="1"/>
@@ -3590,7 +3592,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -3620,17 +3622,17 @@
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -3660,17 +3662,17 @@
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -3700,17 +3702,17 @@
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -3740,17 +3742,17 @@
       </c>
       <c r="J67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -3780,17 +3782,17 @@
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -3820,17 +3822,17 @@
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -3860,17 +3862,17 @@
       </c>
       <c r="J70" s="1">
         <f ca="1">RANDBETWEEN(40,90)</f>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K70">
         <f ca="1">RANDBETWEEN(6.7,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -3900,17 +3902,17 @@
       </c>
       <c r="J71" s="1">
         <f t="shared" ref="J71:J100" ca="1" si="2">RANDBETWEEN(40,90)</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K71">
-        <f t="shared" ref="K71:K100" ca="1" si="3">RANDBETWEEN(6.7,12)</f>
-        <v>11</v>
+        <f t="shared" ref="K71:K85" ca="1" si="3">RANDBETWEEN(6.7,12)</f>
+        <v>7</v>
       </c>
       <c r="L71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -3940,7 +3942,7 @@
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="3"/>
@@ -3950,7 +3952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>105</v>
       </c>
@@ -3980,7 +3982,7 @@
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="3"/>
@@ -3990,7 +3992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -4020,17 +4022,17 @@
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -4060,17 +4062,17 @@
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -4100,17 +4102,17 @@
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -4140,17 +4142,17 @@
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -4180,17 +4182,17 @@
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L78" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>111</v>
       </c>
@@ -4220,17 +4222,17 @@
       </c>
       <c r="J79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -4260,17 +4262,17 @@
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L80" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -4300,17 +4302,17 @@
       </c>
       <c r="J81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -4340,7 +4342,7 @@
       </c>
       <c r="J82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="3"/>
@@ -4350,7 +4352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -4380,17 +4382,17 @@
       </c>
       <c r="J83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -4420,17 +4422,17 @@
       </c>
       <c r="J84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L84" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -4460,7 +4462,7 @@
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="3"/>
@@ -4470,7 +4472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -4500,17 +4502,17 @@
       </c>
       <c r="J86" s="1">
         <f ca="1">RANDBETWEEN(40,60)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K86">
         <f ca="1">RANDBETWEEN(6.7,11)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L86" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -4540,17 +4542,17 @@
       </c>
       <c r="J87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K87">
         <f t="shared" ref="K87:K100" ca="1" si="4">RANDBETWEEN(6.7,11)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L87" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -4580,17 +4582,17 @@
       </c>
       <c r="J88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L88" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -4620,17 +4622,17 @@
       </c>
       <c r="J89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L89" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>120</v>
       </c>
@@ -4660,17 +4662,17 @@
       </c>
       <c r="J90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L90" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>121</v>
       </c>
@@ -4700,7 +4702,7 @@
       </c>
       <c r="J91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="4"/>
@@ -4710,7 +4712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -4740,17 +4742,17 @@
       </c>
       <c r="J92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L92" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -4780,17 +4782,17 @@
       </c>
       <c r="J93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -4820,7 +4822,7 @@
       </c>
       <c r="J94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="4"/>
@@ -4830,7 +4832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>125</v>
       </c>
@@ -4860,7 +4862,7 @@
       </c>
       <c r="J95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="4"/>
@@ -4870,7 +4872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -4900,17 +4902,17 @@
       </c>
       <c r="J96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>127</v>
       </c>
@@ -4940,17 +4942,17 @@
       </c>
       <c r="J97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L97" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>128</v>
       </c>
@@ -4980,17 +4982,17 @@
       </c>
       <c r="J98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L98" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>129</v>
       </c>
@@ -5020,17 +5022,17 @@
       </c>
       <c r="J99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L99" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>130</v>
       </c>
@@ -5060,17 +5062,17 @@
       </c>
       <c r="J100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L100" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>131</v>
       </c>
@@ -5104,13 +5106,13 @@
       </c>
       <c r="K101">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L101" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -5144,13 +5146,13 @@
       </c>
       <c r="K102">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L102" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -5184,13 +5186,13 @@
       </c>
       <c r="K103">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L103" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>134</v>
       </c>
@@ -5224,13 +5226,13 @@
       </c>
       <c r="K104">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L104" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>135</v>
       </c>
@@ -5264,13 +5266,13 @@
       </c>
       <c r="K105">
         <f t="shared" ref="K105:K114" ca="1" si="6">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L105" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>136</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -5350,7 +5352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>140</v>
       </c>
@@ -5464,13 +5466,13 @@
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L110" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -5510,7 +5512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -5544,13 +5546,13 @@
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L112" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -5584,13 +5586,13 @@
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L113" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -5664,13 +5666,13 @@
       </c>
       <c r="K115">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L115" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>146</v>
       </c>
@@ -5704,13 +5706,13 @@
       </c>
       <c r="K116">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L116" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>147</v>
       </c>
@@ -5744,13 +5746,13 @@
       </c>
       <c r="K117">
         <f t="shared" ref="K117:K121" ca="1" si="8">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L117" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>148</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -5824,13 +5826,13 @@
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L119" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>151</v>
       </c>
@@ -5904,13 +5906,13 @@
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L121" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -5944,13 +5946,13 @@
       </c>
       <c r="K122">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L122" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>153</v>
       </c>
@@ -5980,17 +5982,17 @@
       </c>
       <c r="J123" s="1">
         <f t="shared" ref="J123:J141" ca="1" si="9">RANDBETWEEN(3.6,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K123">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L123" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>154</v>
       </c>
@@ -6024,13 +6026,13 @@
       </c>
       <c r="K124">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L124" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -6060,17 +6062,17 @@
       </c>
       <c r="J125" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K125">
         <f t="shared" ref="K125:K134" ca="1" si="10">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L125" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>156</v>
       </c>
@@ -6104,13 +6106,13 @@
       </c>
       <c r="K126">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L126" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>157</v>
       </c>
@@ -6140,17 +6142,17 @@
       </c>
       <c r="J127" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K127">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L127" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>158</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>159</v>
       </c>
@@ -6224,13 +6226,13 @@
       </c>
       <c r="K129">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L129" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>160</v>
       </c>
@@ -6260,7 +6262,7 @@
       </c>
       <c r="J130" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K130">
         <f t="shared" ca="1" si="10"/>
@@ -6270,7 +6272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>161</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>162</v>
       </c>
@@ -6340,17 +6342,17 @@
       </c>
       <c r="J132" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K132">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L132" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>163</v>
       </c>
@@ -6380,17 +6382,17 @@
       </c>
       <c r="J133" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K133">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L133" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>164</v>
       </c>
@@ -6424,13 +6426,13 @@
       </c>
       <c r="K134">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L134" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>165</v>
       </c>
@@ -6460,7 +6462,7 @@
       </c>
       <c r="J135" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K135">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
@@ -6470,7 +6472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>166</v>
       </c>
@@ -6504,13 +6506,13 @@
       </c>
       <c r="K136">
         <f ca="1">RANDBETWEEN(11,13.5)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L136" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>167</v>
       </c>
@@ -6550,7 +6552,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -6580,17 +6582,17 @@
       </c>
       <c r="J138" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K138">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L138" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>169</v>
       </c>
@@ -6620,17 +6622,17 @@
       </c>
       <c r="J139" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K139">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L139" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>170</v>
       </c>
@@ -6670,7 +6672,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -6700,7 +6702,7 @@
       </c>
       <c r="J141" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K141">
         <f t="shared" ca="1" si="11"/>
@@ -6710,7 +6712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -6740,17 +6742,17 @@
       </c>
       <c r="J142" s="1">
         <f ca="1">RANDBETWEEN(520,1100)</f>
-        <v>915</v>
+        <v>1074</v>
       </c>
       <c r="K142">
         <f ca="1">RANDBETWEEN(8,12)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L142" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>179</v>
       </c>
@@ -6780,17 +6782,17 @@
       </c>
       <c r="J143" s="1">
         <f t="shared" ref="J143:J155" ca="1" si="12">RANDBETWEEN(520,1100)</f>
-        <v>597</v>
+        <v>864</v>
       </c>
       <c r="K143">
         <f t="shared" ref="K143:K155" ca="1" si="13">RANDBETWEEN(8,12)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L143" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>180</v>
       </c>
@@ -6820,7 +6822,7 @@
       </c>
       <c r="J144" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1054</v>
+        <v>754</v>
       </c>
       <c r="K144">
         <f t="shared" ca="1" si="13"/>
@@ -6830,7 +6832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -6860,17 +6862,17 @@
       </c>
       <c r="J145" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1002</v>
+        <v>801</v>
       </c>
       <c r="K145">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L145" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -6900,17 +6902,17 @@
       </c>
       <c r="J146" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1095</v>
+        <v>758</v>
       </c>
       <c r="K146">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L146" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -6940,17 +6942,17 @@
       </c>
       <c r="J147" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>933</v>
+        <v>649</v>
       </c>
       <c r="K147">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L147" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>171</v>
       </c>
@@ -6980,17 +6982,17 @@
       </c>
       <c r="J148" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>799</v>
+        <v>650</v>
       </c>
       <c r="K148">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L148" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>172</v>
       </c>
@@ -7020,17 +7022,17 @@
       </c>
       <c r="J149" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>836</v>
+        <v>889</v>
       </c>
       <c r="K149">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L149" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>173</v>
       </c>
@@ -7060,17 +7062,17 @@
       </c>
       <c r="J150" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>578</v>
+        <v>673</v>
       </c>
       <c r="K150">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L150" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>174</v>
       </c>
@@ -7100,17 +7102,17 @@
       </c>
       <c r="J151" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>993</v>
+        <v>1020</v>
       </c>
       <c r="K151">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L151" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -7140,17 +7142,17 @@
       </c>
       <c r="J152" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>550</v>
+        <v>988</v>
       </c>
       <c r="K152">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L152" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>176</v>
       </c>
@@ -7180,17 +7182,17 @@
       </c>
       <c r="J153" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>791</v>
+        <v>956</v>
       </c>
       <c r="K153">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L153" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>177</v>
       </c>
@@ -7220,17 +7222,17 @@
       </c>
       <c r="J154" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>861</v>
+        <v>619</v>
       </c>
       <c r="K154">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L154" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>178</v>
       </c>
@@ -7260,17 +7262,17 @@
       </c>
       <c r="J155" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>777</v>
+        <v>1078</v>
       </c>
       <c r="K155">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L155" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>198</v>
       </c>
@@ -7309,7 +7311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>199</v>
       </c>
@@ -7348,7 +7350,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>200</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>201</v>
       </c>
@@ -7426,7 +7428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>202</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>203</v>
       </c>
@@ -7504,7 +7506,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>204</v>
       </c>
@@ -7543,7 +7545,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>205</v>
       </c>
@@ -7582,7 +7584,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>206</v>
       </c>
@@ -7621,7 +7623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>207</v>
       </c>
@@ -7660,7 +7662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>208</v>
       </c>
@@ -7699,7 +7701,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>209</v>
       </c>
@@ -7738,7 +7740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -7777,7 +7779,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>211</v>
       </c>
@@ -7816,7 +7818,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>212</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>213</v>
       </c>
@@ -7894,7 +7896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -7933,7 +7935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>185</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -8050,7 +8052,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -8128,7 +8130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -8167,7 +8169,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>193</v>
       </c>
@@ -8323,7 +8325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -8362,7 +8364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>195</v>
       </c>
@@ -8440,7 +8442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>196</v>
       </c>
@@ -8479,7 +8481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>163</v>
       </c>
@@ -8548,17 +8550,17 @@
       </c>
       <c r="J188" s="1">
         <f ca="1">RANDBETWEEN(21,72)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K188">
         <f ca="1">RANDBETWEEN(25,33)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L188" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>214</v>
       </c>
@@ -8588,7 +8590,7 @@
       </c>
       <c r="J189" s="1">
         <f t="shared" ref="J189:J205" ca="1" si="15">RANDBETWEEN(21,72)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K189">
         <f t="shared" ref="K189:K205" ca="1" si="16">RANDBETWEEN(25,33)</f>
@@ -8598,7 +8600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>215</v>
       </c>
@@ -8628,17 +8630,17 @@
       </c>
       <c r="J190" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K190">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L190" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>216</v>
       </c>
@@ -8668,17 +8670,17 @@
       </c>
       <c r="J191" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K191">
         <f t="shared" ca="1" si="16"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L191" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>217</v>
       </c>
@@ -8708,17 +8710,17 @@
       </c>
       <c r="J192" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="K192">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L192" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>218</v>
       </c>
@@ -8748,17 +8750,17 @@
       </c>
       <c r="J193" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="K193">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L193" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>219</v>
       </c>
@@ -8788,17 +8790,17 @@
       </c>
       <c r="J194" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K194">
         <f t="shared" ca="1" si="16"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L194" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>220</v>
       </c>
@@ -8828,17 +8830,17 @@
       </c>
       <c r="J195" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="K195">
         <f t="shared" ca="1" si="16"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L195" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>221</v>
       </c>
@@ -8868,17 +8870,17 @@
       </c>
       <c r="J196" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="K196">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L196" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>222</v>
       </c>
@@ -8908,17 +8910,17 @@
       </c>
       <c r="J197" s="1">
         <f ca="1">RANDBETWEEN(21,72)</f>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K197">
         <f ca="1">RANDBETWEEN(25,33)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L197" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>223</v>
       </c>
@@ -8948,17 +8950,17 @@
       </c>
       <c r="J198" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K198">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L198" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>224</v>
       </c>
@@ -8988,17 +8990,17 @@
       </c>
       <c r="J199" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="K199">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L199" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>225</v>
       </c>
@@ -9028,17 +9030,17 @@
       </c>
       <c r="J200" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K200">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L200" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>226</v>
       </c>
@@ -9068,7 +9070,7 @@
       </c>
       <c r="J201" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
         <f t="shared" ca="1" si="16"/>
@@ -9078,7 +9080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>227</v>
       </c>
@@ -9108,17 +9110,17 @@
       </c>
       <c r="J202" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K202">
         <f t="shared" ca="1" si="16"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L202" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>140</v>
       </c>
@@ -9148,17 +9150,17 @@
       </c>
       <c r="J203" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K203">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L203" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>228</v>
       </c>
@@ -9188,17 +9190,17 @@
       </c>
       <c r="J204" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L204" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>229</v>
       </c>
@@ -9228,17 +9230,17 @@
       </c>
       <c r="J205" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K205">
         <f t="shared" ca="1" si="16"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L205" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>158</v>
       </c>
@@ -9268,17 +9270,17 @@
       </c>
       <c r="J206" s="1">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K206">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L206" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>159</v>
       </c>
@@ -9312,13 +9314,13 @@
       </c>
       <c r="K207">
         <f t="shared" ref="K207:K225" ca="1" si="18">RANDBETWEEN(20,30)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L207" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>160</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>161</v>
       </c>
@@ -9392,13 +9394,13 @@
       </c>
       <c r="K209">
         <f t="shared" ca="1" si="18"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L209" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>162</v>
       </c>
@@ -9432,13 +9434,13 @@
       </c>
       <c r="K210">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L210" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>163</v>
       </c>
@@ -9467,18 +9469,18 @@
         <v>65</v>
       </c>
       <c r="J211" s="1">
-        <f t="shared" ref="J207:J225" ca="1" si="19">RANDBETWEEN(4,6)</f>
-        <v>6</v>
+        <f t="shared" ref="J211:J225" ca="1" si="19">RANDBETWEEN(4,6)</f>
+        <v>5</v>
       </c>
       <c r="K211">
         <f t="shared" ca="1" si="18"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L211" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>164</v>
       </c>
@@ -9512,13 +9514,13 @@
       </c>
       <c r="K212">
         <f t="shared" ca="1" si="18"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L212" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>165</v>
       </c>
@@ -9552,13 +9554,13 @@
       </c>
       <c r="K213">
         <f t="shared" ca="1" si="18"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L213" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -9588,17 +9590,17 @@
       </c>
       <c r="J214" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K214">
         <f t="shared" ca="1" si="18"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L214" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>167</v>
       </c>
@@ -9628,7 +9630,7 @@
       </c>
       <c r="J215" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K215">
         <f t="shared" ca="1" si="18"/>
@@ -9638,7 +9640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>100</v>
       </c>
@@ -9672,13 +9674,13 @@
       </c>
       <c r="K216">
         <f t="shared" ca="1" si="18"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L216" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>84</v>
       </c>
@@ -9712,13 +9714,13 @@
       </c>
       <c r="K217">
         <f t="shared" ca="1" si="18"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L217" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>118</v>
       </c>
@@ -9748,7 +9750,7 @@
       </c>
       <c r="J218" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K218">
         <f t="shared" ca="1" si="18"/>
@@ -9758,7 +9760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>119</v>
       </c>
@@ -9792,13 +9794,13 @@
       </c>
       <c r="K219">
         <f t="shared" ca="1" si="18"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L219" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>120</v>
       </c>
@@ -9828,17 +9830,17 @@
       </c>
       <c r="J220" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K220">
         <f t="shared" ca="1" si="18"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L220" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>121</v>
       </c>
@@ -9868,17 +9870,17 @@
       </c>
       <c r="J221" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K221">
         <f t="shared" ca="1" si="18"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L221" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>122</v>
       </c>
@@ -9908,17 +9910,17 @@
       </c>
       <c r="J222" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K222">
         <f t="shared" ca="1" si="18"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L222" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>123</v>
       </c>
@@ -9948,17 +9950,17 @@
       </c>
       <c r="J223" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K223">
         <f t="shared" ca="1" si="18"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L223" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>124</v>
       </c>
@@ -9992,13 +9994,13 @@
       </c>
       <c r="K224">
         <f t="shared" ca="1" si="18"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L224" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>125</v>
       </c>
@@ -10032,11 +10034,14 @@
       </c>
       <c r="K225">
         <f t="shared" ca="1" si="18"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L225" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J230" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
